--- a/AAII_Financials/Quarterly/SGMT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SGMT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>SGMT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -668,10 +668,11 @@
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -699,16 +700,16 @@
         <v>44926</v>
       </c>
       <c r="G7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -828,16 +829,16 @@
         <v>24900</v>
       </c>
       <c r="G12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H12" s="3">
         <v>5900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3400</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -954,16 +955,16 @@
         <v>31100</v>
       </c>
       <c r="G17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -983,16 +984,16 @@
         <v>-31100</v>
       </c>
       <c r="G18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1025,16 +1026,16 @@
         <v>600</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>-700</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1112,16 +1113,16 @@
         <v>-30500</v>
       </c>
       <c r="G23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1199,16 +1200,16 @@
         <v>-30500</v>
       </c>
       <c r="G26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1228,16 +1229,16 @@
         <v>-30500</v>
       </c>
       <c r="G27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1373,16 +1374,16 @@
         <v>-600</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>700</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1402,16 +1403,16 @@
         <v>-30500</v>
       </c>
       <c r="G33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1460,16 +1461,16 @@
         <v>-30500</v>
       </c>
       <c r="G35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1494,16 +1495,16 @@
         <v>44926</v>
       </c>
       <c r="G38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -2579,16 +2580,16 @@
         <v>44926</v>
       </c>
       <c r="G80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2608,16 +2609,16 @@
         <v>-30500</v>
       </c>
       <c r="G81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2824,13 +2825,13 @@
         <v>-24500</v>
       </c>
       <c r="G89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2953,13 +2954,13 @@
         <v>-32000</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-41400</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3114,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>9700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3169,13 +3170,13 @@
         <v>-56600</v>
       </c>
       <c r="G102" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-2600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
